--- a/AfDD_2024_List_of_indicators.xlsx
+++ b/AfDD_2024_List_of_indicators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D4EFA7-605E-4BA1-81C1-B59BCAC304F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C96ADD-FA44-43CB-94FA-F61014E19357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{1A228A50-438B-4384-B6BF-01F4776E09DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F0E5F93A-D5A9-4EA6-86AD-1D95D094B410}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
@@ -7269,7 +7269,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{18C38A82-36E7-4825-B9F1-CEABEEE3736E}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{7E51D468-9F4B-4AED-986C-0488E6000063}">
       <tableStyleElement type="wholeTable" dxfId="22"/>
       <tableStyleElement type="headerRow" dxfId="21"/>
       <tableStyleElement type="firstRowStripe" dxfId="20"/>
@@ -7287,26 +7287,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEF48406-F689-4DEB-9A8F-4448134220BA}" name="Table36" displayName="Table36" ref="B2:R653" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D48A1F5-8114-413F-BD39-4C485FA4AA76}" name="Table36" displayName="Table36" ref="B2:R653" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="B2:R653" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{53C8C86B-3046-435A-9835-6F752B389049}" name="Indicator Code" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{716466D7-F299-4A8D-947D-B0A9A7505203}" name="Table" dataDxfId="15" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{8ABAB9EA-3F3C-4A4A-9638-E5D29C0B29B7}" name="Indicator Name" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{9DAC08C4-02C7-40A6-AE79-D6D7285FD7DD}" name="Indicator description" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{F2C4EEE9-D085-4F82-9370-28AED066B9B9}" name="Unit of measure" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{821E4F80-8FD2-413E-8F0A-FC5E0882E40C}" name="Scale" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{416796C8-A1A8-45D1-8343-13A866164AC7}" name="Calculation used in aggregation" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{6C3E8BBE-DAD4-40BB-906B-DBEB68B16F32}" name="Weight used in aggregation" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{8CC5ADC3-5439-4CF4-992A-E8635E911BFE}" name="Years covered by data" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{8B61B3CF-1654-4BAD-8D0E-9BD28B1D943F}" name="Reference year for coverage statistics" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{AA7603F0-654E-4602-A78E-45B9CF8432B3}" name="Data coverage - % of African countries" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{07071404-D413-4622-8015-962DF2238F8D}" name="Data coverage - % of population of African countries" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{C5E1497C-EFF4-4F77-BD03-2E27DEA9A5E9}" name="Data coverage - % of GDP (in PPP dollars) of African countries" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{85596812-185D-49E6-88B7-2327C4257FBC}" name="Data coverage - % of non-African countries" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{89018DFF-B78C-41E9-9960-C64776D468C3}" name="Data coverage - % of population of non-African countries" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{54216967-7067-4FBE-8E26-F122DD5FAF6B}" name="Data coverage - % of GDP in PPP dollars of non-African countries" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{7A17D3EB-AC1A-4A50-AD4B-D815B842D7FE}" name="Source" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{60AA3BFE-0059-4487-8AE8-01B4FB1FA9FE}" name="Indicator Code" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{F680051E-616A-44C5-BAC4-B370360441F7}" name="Table" dataDxfId="15" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{2945FCE8-9754-4EDE-9F16-43EEB7AC8BE2}" name="Indicator Name" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{85FAB319-6272-494E-8B57-2D4B212A9B59}" name="Indicator description" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{9795A4CA-C8F6-41E1-A705-DF3617F04748}" name="Unit of measure" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{E98140D3-FA18-4407-A436-FB56CF8E42B2}" name="Scale" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{C8CF28EE-5BCD-4073-8CC1-B288168B61C4}" name="Calculation used in aggregation" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{E2029457-259F-43F4-B341-942186105E8D}" name="Weight used in aggregation" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{42FBB363-BE88-4C1E-9FE2-A566EB864554}" name="Years covered by data" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{7980EB45-5288-4C8D-A5B5-4D04DCBC526B}" name="Reference year for coverage statistics" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{90816F2A-FE12-42F0-A678-509C572E2C3A}" name="Data coverage - % of African countries" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{954B8F3C-C5E5-4464-930C-4573DBB8D7CF}" name="Data coverage - % of population of African countries" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{EE3FC454-2E59-49F7-BFA2-A4AC50310C71}" name="Data coverage - % of GDP (in PPP dollars) of African countries" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{F58F29EE-F8E6-49A2-850F-C21C45B98F64}" name="Data coverage - % of non-African countries" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{E1187D4B-29ED-4EA5-AC9F-876F570ECB14}" name="Data coverage - % of population of non-African countries" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{B427C65E-0525-47EA-962A-DAD0CB58C8F6}" name="Data coverage - % of GDP in PPP dollars of non-African countries" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{4D7E4E6B-1719-442F-A278-6EDCC1475B06}" name="Source" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7608,7 +7608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E6FE60-B940-4C30-8749-533AA1C36683}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A174808F-BCDE-4700-9E24-61D41508ABA9}">
   <dimension ref="A1:R663"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -42362,8 +42362,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B655" r:id="rId1" xr:uid="{4AF1A178-121D-4D36-968F-0F57ECEE034C}"/>
-    <hyperlink ref="B657" r:id="rId2" xr:uid="{168132D2-1718-4FBC-A8BB-0CDFEF65F64F}"/>
+    <hyperlink ref="B655" r:id="rId1" xr:uid="{DD2C34B7-12CD-4CDB-8C49-09EBB79686DE}"/>
+    <hyperlink ref="B657" r:id="rId2" xr:uid="{0733DC40-E75D-44FF-97C6-AA130E99F543}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
